--- a/project/public/file/bulk-input-data.xlsx
+++ b/project/public/file/bulk-input-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3088\OneDrive\바탕 화면\　\코딩\My\프로젝트\V-DAS\project\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B14BC0-F6C0-402A-8639-7AE392DEFA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E9134C-6094-420F-B6CA-9A3364E29062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
   </bookViews>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7820ECB5-0782-0B42-B43D-4277CF5933AB}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/project/public/file/bulk-input-data.xlsx
+++ b/project/public/file/bulk-input-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3088\OneDrive\바탕 화면\　\코딩\My\프로젝트\V-DAS\project\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E9134C-6094-420F-B6CA-9A3364E29062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FC1935-70BB-47B0-847E-06661431DFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
   <si>
     <t>단체명</t>
   </si>
@@ -234,36 +234,52 @@
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>g</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -316,11 +332,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -666,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7820ECB5-0782-0B42-B43D-4277CF5933AB}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -693,16 +712,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -720,294 +739,282 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B4" s="1">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>28</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B22" s="1">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1">
         <v>8</v>
@@ -1015,321 +1022,309 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D28" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D29" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D30" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D34" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B35" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D37" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D38" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D39" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D40" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B41" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D41" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D42" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
+      <c r="A43" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B43" s="1">
-        <v>5</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
+      <c r="A44" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B44" s="1">
-        <v>17</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D45" s="1">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B46" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B47" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D47" s="1">
         <v>9</v>
@@ -1337,125 +1332,125 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B48" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D48" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B49" s="1">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="1">
         <v>2</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B50" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B51" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D51" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B52" s="1">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="1">
         <v>8</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B53" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D53" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B54" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B56" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
         <v>4</v>
@@ -1463,138 +1458,179 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B57" s="1">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D57" s="1">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D58" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B59" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D59" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
+      <c r="A60" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B60" s="1">
-        <v>10</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B61" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D61" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B62" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D62" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="1">
-        <v>35</v>
+        <v>68</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>65</v>
+      <c r="A64" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B64" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>66</v>
+        <v>2</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B65" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>67</v>
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B66" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B67" s="1">
+        <f>SUM(B66:B66)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="1">
-        <v>4</v>
-      </c>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="3"/>
+      <c r="D72" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D70">
+    <sortCondition descending="1" ref="B1:B70"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/project/public/file/bulk-input-data.xlsx
+++ b/project/public/file/bulk-input-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3088\OneDrive\바탕 화면\　\코딩\My\프로젝트\V-DAS\project\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FC1935-70BB-47B0-847E-06661431DFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF9B4F3-B823-488D-9452-B71EEFF8CEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="DB변환" sheetId="1" r:id="rId1"/>
@@ -687,13 +687,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7820ECB5-0782-0B42-B43D-4277CF5933AB}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.6640625" style="1"/>
+    <col min="1" max="1" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1377,7 +1378,7 @@
         <v>18</v>
       </c>
       <c r="B51" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>18</v>
@@ -1391,7 +1392,7 @@
         <v>34</v>
       </c>
       <c r="B52" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>34</v>
@@ -1405,7 +1406,7 @@
         <v>35</v>
       </c>
       <c r="B53" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>35</v>
@@ -1419,7 +1420,7 @@
         <v>42</v>
       </c>
       <c r="B54" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>42</v>
@@ -1433,7 +1434,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>55</v>

--- a/project/public/file/bulk-input-data.xlsx
+++ b/project/public/file/bulk-input-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3088\OneDrive\바탕 화면\　\코딩\My\프로젝트\V-DAS\project\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF9B4F3-B823-488D-9452-B71EEFF8CEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A6064D-3ED5-4E43-B9A2-1BC7D8AFE6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
+    <workbookView xWindow="13920" yWindow="0" windowWidth="13935" windowHeight="16200" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="DB변환" sheetId="1" r:id="rId1"/>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7820ECB5-0782-0B42-B43D-4277CF5933AB}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/project/public/file/bulk-input-data.xlsx
+++ b/project/public/file/bulk-input-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3088\OneDrive\바탕 화면\　\코딩\My\프로젝트\V-DAS\project\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A6064D-3ED5-4E43-B9A2-1BC7D8AFE6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC17B1A4-BBD8-48EF-823C-B1C1245AFDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13920" yWindow="0" windowWidth="13935" windowHeight="16200" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t>단체명</t>
   </si>
@@ -234,44 +234,44 @@
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>b</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>f</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>h</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>개인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -309,6 +309,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -332,14 +341,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -685,19 +700,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7820ECB5-0782-0B42-B43D-4277CF5933AB}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.6640625" style="1"/>
+    <col min="2" max="6" width="10.6640625" style="1"/>
+    <col min="7" max="7" width="10.6640625" style="4"/>
+    <col min="8" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,8 +727,9 @@
       <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -724,8 +742,9 @@
       <c r="D2" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -738,16 +757,18 @@
       <c r="D3" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -760,8 +781,9 @@
       <c r="D5" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -774,8 +796,9 @@
       <c r="D6" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -788,8 +811,9 @@
       <c r="D7" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -802,8 +826,9 @@
       <c r="D8" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -816,8 +841,9 @@
       <c r="D9" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -830,8 +856,9 @@
       <c r="D10" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -844,8 +871,9 @@
       <c r="D11" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -858,8 +886,9 @@
       <c r="D12" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -872,8 +901,9 @@
       <c r="D13" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +916,9 @@
       <c r="D14" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -900,8 +931,9 @@
       <c r="D15" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -914,8 +946,9 @@
       <c r="D16" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -928,8 +961,9 @@
       <c r="D17" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -942,8 +976,9 @@
       <c r="D18" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -956,8 +991,9 @@
       <c r="D19" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,8 +1006,9 @@
       <c r="D20" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -984,16 +1021,18 @@
       <c r="D21" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -1006,8 +1045,9 @@
       <c r="D23" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1020,8 +1060,9 @@
       <c r="D24" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1034,8 +1075,9 @@
       <c r="D25" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
@@ -1048,8 +1090,9 @@
       <c r="D26" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -1062,8 +1105,9 @@
       <c r="D27" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1076,8 +1120,9 @@
       <c r="D28" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,8 +1135,9 @@
       <c r="D29" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -1104,8 +1150,9 @@
       <c r="D30" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1118,8 +1165,9 @@
       <c r="D31" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -1132,8 +1180,9 @@
       <c r="D32" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
@@ -1146,8 +1195,9 @@
       <c r="D33" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -1160,8 +1210,9 @@
       <c r="D34" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1174,8 +1225,9 @@
       <c r="D35" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -1188,8 +1240,9 @@
       <c r="D36" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -1202,8 +1255,9 @@
       <c r="D37" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -1216,8 +1270,9 @@
       <c r="D38" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -1230,8 +1285,9 @@
       <c r="D39" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -1244,8 +1300,9 @@
       <c r="D40" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>58</v>
       </c>
@@ -1258,8 +1315,9 @@
       <c r="D41" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -1272,24 +1330,27 @@
       <c r="D42" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B44" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -1302,8 +1363,9 @@
       <c r="D45" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -1316,8 +1378,9 @@
       <c r="D46" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -1330,8 +1393,9 @@
       <c r="D47" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -1344,8 +1408,9 @@
       <c r="D48" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -1358,8 +1423,9 @@
       <c r="D49" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -1372,8 +1438,9 @@
       <c r="D50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -1386,8 +1453,9 @@
       <c r="D51" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
@@ -1400,8 +1468,9 @@
       <c r="D52" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>35</v>
       </c>
@@ -1414,8 +1483,9 @@
       <c r="D53" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>42</v>
       </c>
@@ -1428,8 +1498,9 @@
       <c r="D54" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -1442,8 +1513,9 @@
       <c r="D55" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -1456,8 +1528,9 @@
       <c r="D56" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -1470,8 +1543,9 @@
       <c r="D57" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>37</v>
       </c>
@@ -1484,8 +1558,9 @@
       <c r="D58" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>53</v>
       </c>
@@ -1498,16 +1573,18 @@
       <c r="D59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -1520,8 +1597,9 @@
       <c r="D61" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -1534,103 +1612,303 @@
       <c r="D62" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="1">
+        <v>5</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B64" s="1">
         <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D64" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B65" s="1">
         <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D65" s="1">
+        <v>3</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="1">
+        <f>SUM(B65:B65)</f>
+        <v>2</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" s="1">
-        <v>2</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="C67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="1">
-        <f>SUM(B66:B66)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D68" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D69" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="3"/>
-      <c r="D72" s="3"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G91"/>
+    </row>
+    <row r="92" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G96"/>
+    </row>
+    <row r="97" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G106"/>
+    </row>
+    <row r="107" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G107"/>
+    </row>
+    <row r="108" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G108"/>
+    </row>
+    <row r="109" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G109"/>
+    </row>
+    <row r="110" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G110"/>
+    </row>
+    <row r="111" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G111"/>
+    </row>
+    <row r="112" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G112"/>
+    </row>
+    <row r="113" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G113"/>
+    </row>
+    <row r="114" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G114"/>
+    </row>
+    <row r="115" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G115"/>
+    </row>
+    <row r="116" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G116"/>
+    </row>
+    <row r="117" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G117"/>
+    </row>
+    <row r="118" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G118"/>
+    </row>
+    <row r="119" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G119"/>
+    </row>
+    <row r="120" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G120"/>
+    </row>
+    <row r="121" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G121"/>
+    </row>
+    <row r="122" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G122"/>
+    </row>
+    <row r="123" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G123"/>
+    </row>
+    <row r="124" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G124"/>
+    </row>
+    <row r="125" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G125"/>
+    </row>
+    <row r="126" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G126"/>
+    </row>
+    <row r="127" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G127"/>
+    </row>
+    <row r="128" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G128"/>
+    </row>
+    <row r="129" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G129"/>
+    </row>
+    <row r="130" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G130"/>
+    </row>
+    <row r="131" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G131"/>
+    </row>
+    <row r="132" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G132"/>
+    </row>
+    <row r="133" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G133"/>
+    </row>
+    <row r="134" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G134"/>
+    </row>
+    <row r="135" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G135"/>
+    </row>
+    <row r="136" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G136"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D70">
-    <sortCondition descending="1" ref="B1:B70"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G1:G226">
+    <sortCondition ref="G1:G226"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/project/public/file/bulk-input-data.xlsx
+++ b/project/public/file/bulk-input-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3088\OneDrive\바탕 화면\　\코딩\My\프로젝트\V-DAS\project\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC17B1A4-BBD8-48EF-823C-B1C1245AFDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811239F5-E734-4591-A627-F973AD620962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="0" windowWidth="13935" windowHeight="16200" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="20895" windowHeight="11775" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="DB변환" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
   <si>
     <t>단체명</t>
   </si>
@@ -234,36 +234,84 @@
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>b</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>f</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>h</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>한개인사교회</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인3</t>
+  </si>
+  <si>
+    <t>개인4</t>
+  </si>
+  <si>
+    <t>개인5</t>
+  </si>
+  <si>
+    <t>개인6</t>
+  </si>
+  <si>
+    <t>개인7</t>
+  </si>
+  <si>
+    <t>개인8</t>
+  </si>
+  <si>
+    <t>개인9</t>
+  </si>
+  <si>
+    <t>개인10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -341,20 +389,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -700,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7820ECB5-0782-0B42-B43D-4277CF5933AB}">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1660,74 +1714,197 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>69</v>
+      <c r="A66" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B66" s="1">
-        <f>SUM(B65:B65)</f>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D67" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="1">
+        <v>8</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="1">
+        <v>8</v>
+      </c>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="1">
         <v>3</v>
       </c>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="C71" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3</v>
+      </c>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="3">
+        <v>4</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="3">
+        <v>4</v>
+      </c>
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="1">
+        <v>5</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="1">
+        <v>5</v>
+      </c>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G70"/>
-    </row>
-    <row r="71" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="G71"/>
-    </row>
-    <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G72"/>
-    </row>
-    <row r="73" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G73"/>
-    </row>
-    <row r="74" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C74" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="3">
+        <v>6</v>
+      </c>
       <c r="G74"/>
     </row>
     <row r="75" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="1">
+        <v>7</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="1">
+        <v>7</v>
+      </c>
       <c r="G75"/>
     </row>
     <row r="76" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="3">
+        <v>8</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="3">
+        <v>8</v>
+      </c>
       <c r="G76"/>
     </row>
     <row r="77" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1">
+        <v>9</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="1">
+        <v>9</v>
+      </c>
       <c r="G77"/>
     </row>
     <row r="78" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="3">
+        <v>10</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="3">
+        <v>10</v>
+      </c>
       <c r="G78"/>
     </row>
     <row r="79" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1901,14 +2078,11 @@
     <row r="135" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G135"/>
     </row>
-    <row r="136" spans="7:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G136"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G1:G226">
-    <sortCondition ref="G1:G226"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G1:G225">
+    <sortCondition ref="G1:G225"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
